--- a/data/evaluation/evaluation_Center_Winter_Oranges.xlsx
+++ b/data/evaluation/evaluation_Center_Winter_Oranges.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2091.271978021978</v>
+        <v>2116.143772893773</v>
       </c>
       <c r="C3" t="n">
-        <v>12358455.95942351</v>
+        <v>12468033.73720129</v>
       </c>
       <c r="D3" t="n">
-        <v>3515.459565892277</v>
+        <v>3531.010299786917</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3981288086598811</v>
+        <v>0.3927922433258254</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2039.756279787101</v>
+        <v>2029.786348024739</v>
       </c>
       <c r="C4" t="n">
-        <v>12263114.17454457</v>
+        <v>12277360.65265999</v>
       </c>
       <c r="D4" t="n">
-        <v>3501.872952370569</v>
+        <v>3503.906484576891</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4027720645680619</v>
+        <v>0.4020782444999335</v>
       </c>
     </row>
     <row r="5">
